--- a/sklep_4.xlsx
+++ b/sklep_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl-my.sharepoint.com/personal/nalepkap_student_agh_edu_pl/Documents/Sem5/SVD/KerfusProject/SWD_Kerfus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piter\Desktop\DOBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="13_ncr:1_{5D6D5B3D-6526-4D50-A7CF-7854697B512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99875624-5133-4666-96D5-1FA35F525286}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4926E25F-C7C4-4056-AFFA-58121E993939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{983B0401-862A-4A11-94D6-A974676171F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{983B0401-862A-4A11-94D6-A974676171F9}"/>
   </bookViews>
   <sheets>
     <sheet name="mapa" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -498,10 +498,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,18 +819,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC73091E-0747-4333-9BE2-227938726090}">
   <dimension ref="A1:BJ48"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="60" max="60" width="38.28515625" customWidth="1"/>
-    <col min="61" max="61" width="7.28515625" customWidth="1"/>
-    <col min="62" max="62" width="45.28515625" customWidth="1"/>
+    <col min="60" max="60" width="38.33203125" customWidth="1"/>
+    <col min="61" max="61" width="7.33203125" customWidth="1"/>
+    <col min="62" max="62" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:62" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1004,7 +998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1177,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1350,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1523,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1696,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1869,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:62" ht="47.4" x14ac:dyDescent="0.9">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2045,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2224,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2403,7 +2397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2582,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2761,7 +2755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2940,7 +2934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3119,7 +3113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3298,7 +3292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3471,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3644,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3817,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3990,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -4163,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4336,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4509,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -4682,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4855,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5028,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5201,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5374,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5547,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5720,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5893,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -6066,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="28.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:57" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B31" s="1">
         <v>0</v>
       </c>
@@ -6236,7 +6230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="26:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="48" spans="26:26" ht="31.2" x14ac:dyDescent="0.6">
       <c r="Z48" s="24"/>
     </row>
   </sheetData>
@@ -6288,20 +6282,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B30CCA-6B6E-4DD0-8945-158CD016E685}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -6327,7 +6319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -6347,7 +6339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -6367,7 +6359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -6387,7 +6379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -6407,7 +6399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -6427,7 +6419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -6447,7 +6439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -6467,7 +6459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -6487,7 +6479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -6507,7 +6499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -6527,7 +6519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -6547,7 +6539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -6567,7 +6559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -6587,7 +6579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -6607,7 +6599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -6627,7 +6619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -6647,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -6667,7 +6659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -6687,7 +6679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -6707,7 +6699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>20</v>
       </c>
@@ -6727,7 +6719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -6747,7 +6739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -6767,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -6787,7 +6779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -6807,7 +6799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -6827,7 +6819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -6847,7 +6839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -6867,7 +6859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -6887,7 +6879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -6907,7 +6899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -6927,7 +6919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -6947,7 +6939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -6967,7 +6959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -6987,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -7007,7 +6999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -7027,7 +7019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -7047,7 +7039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -7067,7 +7059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -7087,7 +7079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -7107,7 +7099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>40</v>
       </c>
@@ -7127,7 +7119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -7147,7 +7139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -7167,7 +7159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -7187,7 +7179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -7207,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -7227,7 +7219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -7247,7 +7239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -7267,7 +7259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -7287,7 +7279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -7307,7 +7299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -7327,7 +7319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -7347,7 +7339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -7367,7 +7359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -7387,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -7407,7 +7399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -7427,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -7447,7 +7439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -7467,7 +7459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -7487,7 +7479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -7507,7 +7499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -7527,7 +7519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -7547,7 +7539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -7567,7 +7559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -7587,7 +7579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -7607,7 +7599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -7627,7 +7619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -7647,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -7667,7 +7659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -7687,7 +7679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -7707,7 +7699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -7727,7 +7719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -7747,7 +7739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -7767,7 +7759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -7787,7 +7779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -7807,7 +7799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -7827,7 +7819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -7847,7 +7839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -7867,7 +7859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>78</v>
       </c>
